--- a/共有用フォルダー/ガントチャート/小柳ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/小柳ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47BBF6C4-8E60-4804-9A23-F99483A0B6A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BF9817-C344-4327-8040-251BCF341DCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -306,6 +306,46 @@
   </si>
   <si>
     <t>タスク</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>servlet</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>SlideServlet.java</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>dao</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>ManageDao.java</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>Manage.java</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>Slide.jsp</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>javascript</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>Slide.js</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>slide.css</t>
     <phoneticPr fontId="29"/>
   </si>
 </sst>
@@ -1389,6 +1429,12 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1400,12 +1446,6 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2016,9 +2056,9 @@
   </sheetPr>
   <dimension ref="A1:BL47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="72" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2070,107 +2110,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="96">
+      <c r="D3" s="94"/>
+      <c r="E3" s="98">
         <f ca="1">TODAY()</f>
         <v>45093</v>
       </c>
-      <c r="F3" s="96"/>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="93">
+      <c r="I4" s="95">
         <f ca="1">I5</f>
         <v>45089</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93">
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="95">
         <f ca="1">P5</f>
         <v>45096</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="93">
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="95">
         <f ca="1">W5</f>
         <v>45103</v>
       </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="93">
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="95">
         <f ca="1">AD5</f>
         <v>45110</v>
       </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="93">
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="95">
         <f ca="1">AK5</f>
         <v>45117</v>
       </c>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="93">
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="95">
         <f ca="1">AR5</f>
         <v>45124</v>
       </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="93">
+      <c r="AS4" s="96"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="95">
         <f ca="1">AY5</f>
         <v>45131</v>
       </c>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="93">
+      <c r="AZ4" s="96"/>
+      <c r="BA4" s="96"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="95">
         <f ca="1">BF5</f>
         <v>45138</v>
       </c>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="95"/>
+      <c r="BG4" s="96"/>
+      <c r="BH4" s="96"/>
+      <c r="BI4" s="96"/>
+      <c r="BJ4" s="96"/>
+      <c r="BK4" s="96"/>
+      <c r="BL4" s="97"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -2800,11 +2840,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="D9" s="39">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E9" s="70">
         <f ca="1">プロジェクトの開始</f>
@@ -2881,19 +2923,21 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="15"/>
+        <v>69</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="D10" s="39">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E10" s="70">
-        <f ca="1">F9</f>
-        <v>45096</v>
+        <f ca="1">プロジェクトの開始</f>
+        <v>45093</v>
       </c>
       <c r="F10" s="70">
         <f ca="1">E10+2</f>
-        <v>45098</v>
+        <v>45095</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38">
@@ -2960,19 +3004,21 @@
     <row r="11" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="B11" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="15"/>
+        <v>70</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>72</v>
+      </c>
       <c r="D11" s="39">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E11" s="70">
-        <f ca="1">F10</f>
-        <v>45098</v>
+        <f ca="1">プロジェクトの開始</f>
+        <v>45093</v>
       </c>
       <c r="F11" s="70">
         <f ca="1">E11+4</f>
-        <v>45102</v>
+        <v>45097</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="38">
@@ -3039,19 +3085,21 @@
     <row r="12" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="15"/>
+        <v>60</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="D12" s="39">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="E12" s="70">
-        <f ca="1">F11</f>
-        <v>45102</v>
+        <f ca="1">プロジェクトの開始</f>
+        <v>45093</v>
       </c>
       <c r="F12" s="70">
         <f ca="1">E12+5</f>
-        <v>45107</v>
+        <v>45098</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="38">
@@ -3117,9 +3165,15 @@
     </row>
     <row r="13" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="39">
+        <v>0</v>
+      </c>
       <c r="E13" s="70"/>
       <c r="F13" s="70"/>
       <c r="G13" s="38"/>
@@ -3184,17 +3238,21 @@
     <row r="14" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="B14" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="39">
+        <v>0.4</v>
+      </c>
       <c r="E14" s="70">
         <f ca="1">E10+1</f>
-        <v>45097</v>
+        <v>45094</v>
       </c>
       <c r="F14" s="70">
         <f ca="1">E14+2</f>
-        <v>45099</v>
+        <v>45096</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="38">
@@ -3342,11 +3400,11 @@
       </c>
       <c r="E16" s="73">
         <f ca="1">E14+1</f>
-        <v>45098</v>
+        <v>45095</v>
       </c>
       <c r="F16" s="73">
         <f ca="1">E16+4</f>
-        <v>45102</v>
+        <v>45099</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38">
@@ -3421,11 +3479,11 @@
       </c>
       <c r="E17" s="73">
         <f ca="1">E16+2</f>
-        <v>45100</v>
+        <v>45097</v>
       </c>
       <c r="F17" s="73">
         <f ca="1">E17+5</f>
-        <v>45105</v>
+        <v>45102</v>
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="38">
@@ -3498,11 +3556,11 @@
       <c r="D18" s="42"/>
       <c r="E18" s="73">
         <f ca="1">F17</f>
-        <v>45105</v>
+        <v>45102</v>
       </c>
       <c r="F18" s="73">
         <f ca="1">E18+3</f>
-        <v>45108</v>
+        <v>45105</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="38">
@@ -3575,11 +3633,11 @@
       <c r="D19" s="42"/>
       <c r="E19" s="73">
         <f ca="1">E18</f>
-        <v>45105</v>
+        <v>45102</v>
       </c>
       <c r="F19" s="73">
         <f ca="1">E19+2</f>
-        <v>45107</v>
+        <v>45104</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="38">
@@ -3652,11 +3710,11 @@
       <c r="D20" s="42"/>
       <c r="E20" s="73">
         <f ca="1">E19</f>
-        <v>45105</v>
+        <v>45102</v>
       </c>
       <c r="F20" s="73">
         <f ca="1">E20+3</f>
-        <v>45108</v>
+        <v>45105</v>
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="38">
@@ -5506,17 +5564,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D44">
@@ -5701,12 +5759,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5998,29 +6067,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6047,13 +6109,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/小柳ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/小柳ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BF9817-C344-4327-8040-251BCF341DCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6956D207-38D2-4739-ABC2-56D5935B17D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1429,23 +1429,23 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2058,7 +2058,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="72" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2110,107 +2110,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="98">
+      <c r="D3" s="98"/>
+      <c r="E3" s="96">
         <f ca="1">TODAY()</f>
         <v>45093</v>
       </c>
-      <c r="F3" s="98"/>
+      <c r="F3" s="96"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="94"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="93">
         <f ca="1">I5</f>
         <v>45089</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="95">
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="93">
         <f ca="1">P5</f>
         <v>45096</v>
       </c>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="95">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="93">
         <f ca="1">W5</f>
         <v>45103</v>
       </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="95">
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="93">
         <f ca="1">AD5</f>
         <v>45110</v>
       </c>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="95">
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="93">
         <f ca="1">AK5</f>
         <v>45117</v>
       </c>
-      <c r="AL4" s="96"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="95">
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="93">
         <f ca="1">AR5</f>
         <v>45124</v>
       </c>
-      <c r="AS4" s="96"/>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="96"/>
-      <c r="AW4" s="96"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="95">
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="95"/>
+      <c r="AY4" s="93">
         <f ca="1">AY5</f>
         <v>45131</v>
       </c>
-      <c r="AZ4" s="96"/>
-      <c r="BA4" s="96"/>
-      <c r="BB4" s="96"/>
-      <c r="BC4" s="96"/>
-      <c r="BD4" s="96"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="95">
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="95"/>
+      <c r="BF4" s="93">
         <f ca="1">BF5</f>
         <v>45138</v>
       </c>
-      <c r="BG4" s="96"/>
-      <c r="BH4" s="96"/>
-      <c r="BI4" s="96"/>
-      <c r="BJ4" s="96"/>
-      <c r="BK4" s="96"/>
-      <c r="BL4" s="97"/>
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="94"/>
+      <c r="BK4" s="94"/>
+      <c r="BL4" s="95"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -3010,7 +3010,7 @@
         <v>72</v>
       </c>
       <c r="D11" s="39">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="70">
         <f ca="1">プロジェクトの開始</f>
@@ -5564,17 +5564,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D44">
@@ -5759,26 +5759,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6066,6 +6046,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6076,18 +6076,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6108,6 +6096,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>

--- a/共有用フォルダー/ガントチャート/小柳ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/小柳ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6956D207-38D2-4739-ABC2-56D5935B17D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C044FB4E-F1D5-4ADF-87EB-5782D0938BB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1429,6 +1429,12 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1440,12 +1446,6 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2058,7 +2058,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="72" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2110,107 +2110,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="96">
+      <c r="D3" s="94"/>
+      <c r="E3" s="98">
         <f ca="1">TODAY()</f>
         <v>45093</v>
       </c>
-      <c r="F3" s="96"/>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="93">
+      <c r="I4" s="95">
         <f ca="1">I5</f>
         <v>45089</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93">
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="95">
         <f ca="1">P5</f>
         <v>45096</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="93">
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="95">
         <f ca="1">W5</f>
         <v>45103</v>
       </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="93">
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="95">
         <f ca="1">AD5</f>
         <v>45110</v>
       </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="93">
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="95">
         <f ca="1">AK5</f>
         <v>45117</v>
       </c>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="93">
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="95">
         <f ca="1">AR5</f>
         <v>45124</v>
       </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="93">
+      <c r="AS4" s="96"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="95">
         <f ca="1">AY5</f>
         <v>45131</v>
       </c>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="93">
+      <c r="AZ4" s="96"/>
+      <c r="BA4" s="96"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="95">
         <f ca="1">BF5</f>
         <v>45138</v>
       </c>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="95"/>
+      <c r="BG4" s="96"/>
+      <c r="BH4" s="96"/>
+      <c r="BI4" s="96"/>
+      <c r="BJ4" s="96"/>
+      <c r="BK4" s="96"/>
+      <c r="BL4" s="97"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -2929,7 +2929,7 @@
         <v>71</v>
       </c>
       <c r="D10" s="39">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="70">
         <f ca="1">プロジェクトの開始</f>
@@ -5564,17 +5564,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D44">
@@ -5759,6 +5759,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6046,36 +6075,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6094,24 +6114,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/小柳ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/小柳ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C044FB4E-F1D5-4ADF-87EB-5782D0938BB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013E6548-44E3-40B9-9E28-88C02D13CC34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1429,23 +1429,23 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2058,7 +2058,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="72" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2110,107 +2110,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="98">
+      <c r="D3" s="98"/>
+      <c r="E3" s="96">
         <f ca="1">TODAY()</f>
-        <v>45093</v>
-      </c>
-      <c r="F3" s="98"/>
+        <v>45096</v>
+      </c>
+      <c r="F3" s="96"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="94"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="93">
         <f ca="1">I5</f>
-        <v>45089</v>
-      </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="95">
+        <v>45096</v>
+      </c>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="93">
         <f ca="1">P5</f>
-        <v>45096</v>
-      </c>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="95">
+        <v>45103</v>
+      </c>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="93">
         <f ca="1">W5</f>
-        <v>45103</v>
-      </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="95">
+        <v>45110</v>
+      </c>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="93">
         <f ca="1">AD5</f>
-        <v>45110</v>
-      </c>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="95">
+        <v>45117</v>
+      </c>
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="93">
         <f ca="1">AK5</f>
-        <v>45117</v>
-      </c>
-      <c r="AL4" s="96"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="95">
+        <v>45124</v>
+      </c>
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="93">
         <f ca="1">AR5</f>
-        <v>45124</v>
-      </c>
-      <c r="AS4" s="96"/>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="96"/>
-      <c r="AW4" s="96"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="95">
+        <v>45131</v>
+      </c>
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="95"/>
+      <c r="AY4" s="93">
         <f ca="1">AY5</f>
-        <v>45131</v>
-      </c>
-      <c r="AZ4" s="96"/>
-      <c r="BA4" s="96"/>
-      <c r="BB4" s="96"/>
-      <c r="BC4" s="96"/>
-      <c r="BD4" s="96"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="95">
+        <v>45138</v>
+      </c>
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="95"/>
+      <c r="BF4" s="93">
         <f ca="1">BF5</f>
-        <v>45138</v>
-      </c>
-      <c r="BG4" s="96"/>
-      <c r="BH4" s="96"/>
-      <c r="BI4" s="96"/>
-      <c r="BJ4" s="96"/>
-      <c r="BK4" s="96"/>
-      <c r="BL4" s="97"/>
+        <v>45145</v>
+      </c>
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="94"/>
+      <c r="BK4" s="94"/>
+      <c r="BL4" s="95"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -2224,227 +2224,227 @@
       <c r="G5" s="26"/>
       <c r="I5" s="82">
         <f ca="1">プロジェクトの開始-WEEKDAY(プロジェクトの開始,1)+2+7*(週表示-1)</f>
-        <v>45089</v>
+        <v>45096</v>
       </c>
       <c r="J5" s="83">
         <f ca="1">I5+1</f>
-        <v>45090</v>
+        <v>45097</v>
       </c>
       <c r="K5" s="83">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45091</v>
+        <v>45098</v>
       </c>
       <c r="L5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45092</v>
+        <v>45099</v>
       </c>
       <c r="M5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45093</v>
+        <v>45100</v>
       </c>
       <c r="N5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45094</v>
+        <v>45101</v>
       </c>
       <c r="O5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45095</v>
+        <v>45102</v>
       </c>
       <c r="P5" s="82">
         <f ca="1">O5+1</f>
-        <v>45096</v>
+        <v>45103</v>
       </c>
       <c r="Q5" s="83">
         <f ca="1">P5+1</f>
-        <v>45097</v>
+        <v>45104</v>
       </c>
       <c r="R5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45098</v>
+        <v>45105</v>
       </c>
       <c r="S5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45099</v>
+        <v>45106</v>
       </c>
       <c r="T5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="U5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45101</v>
+        <v>45108</v>
       </c>
       <c r="V5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45102</v>
+        <v>45109</v>
       </c>
       <c r="W5" s="82">
         <f ca="1">V5+1</f>
-        <v>45103</v>
+        <v>45110</v>
       </c>
       <c r="X5" s="83">
         <f ca="1">W5+1</f>
-        <v>45104</v>
+        <v>45111</v>
       </c>
       <c r="Y5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45105</v>
+        <v>45112</v>
       </c>
       <c r="Z5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45106</v>
+        <v>45113</v>
       </c>
       <c r="AA5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45107</v>
+        <v>45114</v>
       </c>
       <c r="AB5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45108</v>
+        <v>45115</v>
       </c>
       <c r="AC5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45109</v>
+        <v>45116</v>
       </c>
       <c r="AD5" s="82">
         <f ca="1">AC5+1</f>
-        <v>45110</v>
+        <v>45117</v>
       </c>
       <c r="AE5" s="83">
         <f ca="1">AD5+1</f>
-        <v>45111</v>
+        <v>45118</v>
       </c>
       <c r="AF5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45112</v>
+        <v>45119</v>
       </c>
       <c r="AG5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45113</v>
+        <v>45120</v>
       </c>
       <c r="AH5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45114</v>
+        <v>45121</v>
       </c>
       <c r="AI5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45115</v>
+        <v>45122</v>
       </c>
       <c r="AJ5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45116</v>
+        <v>45123</v>
       </c>
       <c r="AK5" s="82">
         <f ca="1">AJ5+1</f>
-        <v>45117</v>
+        <v>45124</v>
       </c>
       <c r="AL5" s="83">
         <f ca="1">AK5+1</f>
-        <v>45118</v>
+        <v>45125</v>
       </c>
       <c r="AM5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45119</v>
+        <v>45126</v>
       </c>
       <c r="AN5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45120</v>
+        <v>45127</v>
       </c>
       <c r="AO5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45121</v>
+        <v>45128</v>
       </c>
       <c r="AP5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45122</v>
+        <v>45129</v>
       </c>
       <c r="AQ5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45123</v>
+        <v>45130</v>
       </c>
       <c r="AR5" s="82">
         <f ca="1">AQ5+1</f>
-        <v>45124</v>
+        <v>45131</v>
       </c>
       <c r="AS5" s="83">
         <f ca="1">AR5+1</f>
-        <v>45125</v>
+        <v>45132</v>
       </c>
       <c r="AT5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45126</v>
+        <v>45133</v>
       </c>
       <c r="AU5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45127</v>
+        <v>45134</v>
       </c>
       <c r="AV5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45128</v>
+        <v>45135</v>
       </c>
       <c r="AW5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45129</v>
+        <v>45136</v>
       </c>
       <c r="AX5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45130</v>
+        <v>45137</v>
       </c>
       <c r="AY5" s="82">
         <f ca="1">AX5+1</f>
-        <v>45131</v>
+        <v>45138</v>
       </c>
       <c r="AZ5" s="83">
         <f ca="1">AY5+1</f>
-        <v>45132</v>
+        <v>45139</v>
       </c>
       <c r="BA5" s="83">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45133</v>
+        <v>45140</v>
       </c>
       <c r="BB5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45134</v>
+        <v>45141</v>
       </c>
       <c r="BC5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45135</v>
+        <v>45142</v>
       </c>
       <c r="BD5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <v>45143</v>
       </c>
       <c r="BE5" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>45137</v>
+        <v>45144</v>
       </c>
       <c r="BF5" s="82">
         <f ca="1">BE5+1</f>
-        <v>45138</v>
+        <v>45145</v>
       </c>
       <c r="BG5" s="83">
         <f ca="1">BF5+1</f>
-        <v>45139</v>
+        <v>45146</v>
       </c>
       <c r="BH5" s="83">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45140</v>
+        <v>45147</v>
       </c>
       <c r="BI5" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>45141</v>
+        <v>45148</v>
       </c>
       <c r="BJ5" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>45142</v>
+        <v>45149</v>
       </c>
       <c r="BK5" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>45143</v>
+        <v>45150</v>
       </c>
       <c r="BL5" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>45144</v>
+        <v>45151</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2846,15 +2846,15 @@
         <v>68</v>
       </c>
       <c r="D9" s="39">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E9" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="F9" s="70">
         <f ca="1">E9+3</f>
-        <v>45096</v>
+        <v>45099</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38">
@@ -2929,15 +2929,15 @@
         <v>71</v>
       </c>
       <c r="D10" s="39">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="E10" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="F10" s="70">
         <f ca="1">E10+2</f>
-        <v>45095</v>
+        <v>45098</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38">
@@ -3010,15 +3010,15 @@
         <v>72</v>
       </c>
       <c r="D11" s="39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E11" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="F11" s="70">
         <f ca="1">E11+4</f>
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="38">
@@ -3095,11 +3095,11 @@
       </c>
       <c r="E12" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="F12" s="70">
         <f ca="1">E12+5</f>
-        <v>45098</v>
+        <v>45101</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="38">
@@ -3248,11 +3248,11 @@
       </c>
       <c r="E14" s="70">
         <f ca="1">E10+1</f>
-        <v>45094</v>
+        <v>45097</v>
       </c>
       <c r="F14" s="70">
         <f ca="1">E14+2</f>
-        <v>45096</v>
+        <v>45099</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="38">
@@ -3400,11 +3400,11 @@
       </c>
       <c r="E16" s="73">
         <f ca="1">E14+1</f>
-        <v>45095</v>
+        <v>45098</v>
       </c>
       <c r="F16" s="73">
         <f ca="1">E16+4</f>
-        <v>45099</v>
+        <v>45102</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38">
@@ -3479,11 +3479,11 @@
       </c>
       <c r="E17" s="73">
         <f ca="1">E16+2</f>
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="F17" s="73">
         <f ca="1">E17+5</f>
-        <v>45102</v>
+        <v>45105</v>
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="38">
@@ -3556,11 +3556,11 @@
       <c r="D18" s="42"/>
       <c r="E18" s="73">
         <f ca="1">F17</f>
-        <v>45102</v>
+        <v>45105</v>
       </c>
       <c r="F18" s="73">
         <f ca="1">E18+3</f>
-        <v>45105</v>
+        <v>45108</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="38">
@@ -3633,11 +3633,11 @@
       <c r="D19" s="42"/>
       <c r="E19" s="73">
         <f ca="1">E18</f>
-        <v>45102</v>
+        <v>45105</v>
       </c>
       <c r="F19" s="73">
         <f ca="1">E19+2</f>
-        <v>45104</v>
+        <v>45107</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="38">
@@ -3710,11 +3710,11 @@
       <c r="D20" s="42"/>
       <c r="E20" s="73">
         <f ca="1">E19</f>
-        <v>45102</v>
+        <v>45105</v>
       </c>
       <c r="F20" s="73">
         <f ca="1">E20+3</f>
-        <v>45105</v>
+        <v>45108</v>
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="38">
@@ -3860,11 +3860,11 @@
       <c r="D22" s="45"/>
       <c r="E22" s="76">
         <f ca="1">E9+15</f>
-        <v>45108</v>
+        <v>45111</v>
       </c>
       <c r="F22" s="76">
         <f ca="1">E22+5</f>
-        <v>45113</v>
+        <v>45116</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38">
@@ -3937,11 +3937,11 @@
       <c r="D23" s="45"/>
       <c r="E23" s="76">
         <f ca="1">F22+1</f>
-        <v>45114</v>
+        <v>45117</v>
       </c>
       <c r="F23" s="76">
         <f ca="1">E23+4</f>
-        <v>45118</v>
+        <v>45121</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="38">
@@ -4014,11 +4014,11 @@
       <c r="D24" s="45"/>
       <c r="E24" s="76">
         <f ca="1">E23+5</f>
-        <v>45119</v>
+        <v>45122</v>
       </c>
       <c r="F24" s="76">
         <f ca="1">E24+5</f>
-        <v>45124</v>
+        <v>45127</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="38">
@@ -4091,11 +4091,11 @@
       <c r="D25" s="45"/>
       <c r="E25" s="76">
         <f ca="1">F24+1</f>
-        <v>45125</v>
+        <v>45128</v>
       </c>
       <c r="F25" s="76">
         <f ca="1">E25+4</f>
-        <v>45129</v>
+        <v>45132</v>
       </c>
       <c r="G25" s="38"/>
       <c r="H25" s="38">
@@ -4168,11 +4168,11 @@
       <c r="D26" s="45"/>
       <c r="E26" s="76">
         <f ca="1">E24</f>
-        <v>45119</v>
+        <v>45122</v>
       </c>
       <c r="F26" s="76">
         <f ca="1">E26+4</f>
-        <v>45123</v>
+        <v>45126</v>
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="38">
@@ -5564,17 +5564,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D44">
@@ -5759,35 +5759,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6075,27 +6046,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6114,4 +6094,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/小柳ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/小柳ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013E6548-44E3-40B9-9E28-88C02D13CC34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DD3C9C-C4FF-4C70-A6A2-2C735F00D927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -346,6 +346,14 @@
   </si>
   <si>
     <t>slide.css</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>ManageSlide.java</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>Graph.java</t>
     <phoneticPr fontId="29"/>
   </si>
 </sst>
@@ -1429,6 +1437,12 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1440,12 +1454,6 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2054,11 +2062,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL47"/>
+  <dimension ref="A1:BL49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="72" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="72" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2110,107 +2118,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="96">
+      <c r="D3" s="94"/>
+      <c r="E3" s="98">
         <f ca="1">TODAY()</f>
-        <v>45096</v>
-      </c>
-      <c r="F3" s="96"/>
+        <v>45097</v>
+      </c>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="93">
+      <c r="I4" s="95">
         <f ca="1">I5</f>
         <v>45096</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93">
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="95">
         <f ca="1">P5</f>
         <v>45103</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="93">
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="95">
         <f ca="1">W5</f>
         <v>45110</v>
       </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="93">
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="95">
         <f ca="1">AD5</f>
         <v>45117</v>
       </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="93">
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="95">
         <f ca="1">AK5</f>
         <v>45124</v>
       </c>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="93">
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="95">
         <f ca="1">AR5</f>
         <v>45131</v>
       </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="93">
+      <c r="AS4" s="96"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="95">
         <f ca="1">AY5</f>
         <v>45138</v>
       </c>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="93">
+      <c r="AZ4" s="96"/>
+      <c r="BA4" s="96"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="95">
         <f ca="1">BF5</f>
         <v>45145</v>
       </c>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="95"/>
+      <c r="BG4" s="96"/>
+      <c r="BH4" s="96"/>
+      <c r="BI4" s="96"/>
+      <c r="BJ4" s="96"/>
+      <c r="BK4" s="96"/>
+      <c r="BL4" s="97"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -2775,7 +2783,7 @@
       <c r="F8" s="69"/>
       <c r="G8" s="38"/>
       <c r="H8" s="38" t="str">
-        <f t="shared" ref="H8:H44" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
+        <f t="shared" ref="H8:H46" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
       <c r="I8" s="5"/>
@@ -2850,11 +2858,11 @@
       </c>
       <c r="E9" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="F9" s="70">
         <f ca="1">E9+3</f>
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38">
@@ -2929,15 +2937,15 @@
         <v>71</v>
       </c>
       <c r="D10" s="39">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E10" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="F10" s="70">
         <f ca="1">E10+2</f>
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38">
@@ -3002,29 +3010,22 @@
       <c r="BL10" s="5"/>
     </row>
     <row r="11" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="22" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D11" s="39">
         <v>1</v>
       </c>
       <c r="E11" s="70">
-        <f ca="1">プロジェクトの開始</f>
-        <v>45096</v>
-      </c>
-      <c r="F11" s="70">
-        <f ca="1">E11+4</f>
-        <v>45100</v>
-      </c>
+        <v>45097</v>
+      </c>
+      <c r="F11" s="70"/>
       <c r="G11" s="38"/>
-      <c r="H11" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="H11" s="38"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -3037,8 +3038,8 @@
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
@@ -3083,29 +3084,22 @@
       <c r="BL11" s="5"/>
     </row>
     <row r="12" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="22" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D12" s="39">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E12" s="70">
-        <f ca="1">プロジェクトの開始</f>
-        <v>45096</v>
-      </c>
-      <c r="F12" s="70">
-        <f ca="1">E12+5</f>
-        <v>45101</v>
-      </c>
+        <v>45097</v>
+      </c>
+      <c r="F12" s="70"/>
       <c r="G12" s="38"/>
-      <c r="H12" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
+      <c r="H12" s="38"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -3118,11 +3112,11 @@
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="6"/>
+      <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
@@ -3166,18 +3160,27 @@
     <row r="13" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="B13" s="22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D13" s="39">
-        <v>0</v>
-      </c>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="70">
+        <f ca="1">プロジェクトの開始</f>
+        <v>45097</v>
+      </c>
+      <c r="F13" s="70">
+        <f ca="1">E13+4</f>
+        <v>45101</v>
+      </c>
       <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+      <c r="H13" s="38">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -3194,7 +3197,7 @@
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="6"/>
+      <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
@@ -3238,26 +3241,26 @@
     <row r="14" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="B14" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D14" s="39">
         <v>0.4</v>
       </c>
       <c r="E14" s="70">
-        <f ca="1">E10+1</f>
+        <f ca="1">プロジェクトの開始</f>
         <v>45097</v>
       </c>
       <c r="F14" s="70">
-        <f ca="1">E14+2</f>
-        <v>45099</v>
+        <f ca="1">E14+5</f>
+        <v>45102</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="38">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -3275,7 +3278,7 @@
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
+      <c r="Y14" s="6"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
@@ -3317,21 +3320,20 @@
       <c r="BL14" s="5"/>
     </row>
     <row r="15" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="72"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="39">
+        <v>0</v>
+      </c>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="38"/>
-      <c r="H15" s="38" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H15" s="38"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -3348,7 +3350,7 @@
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
+      <c r="Y15" s="6"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
@@ -3390,26 +3392,28 @@
       <c r="BL15" s="5"/>
     </row>
     <row r="16" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="9"/>
-      <c r="B16" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="73">
-        <f ca="1">E14+1</f>
+      <c r="A16" s="8"/>
+      <c r="B16" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="39">
+        <v>0.4</v>
+      </c>
+      <c r="E16" s="70">
+        <f ca="1">E10+1</f>
         <v>45098</v>
       </c>
-      <c r="F16" s="73">
-        <f ca="1">E16+4</f>
-        <v>45102</v>
+      <c r="F16" s="70">
+        <f ca="1">E16+2</f>
+        <v>45100</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -3469,26 +3473,20 @@
       <c r="BL16" s="5"/>
     </row>
     <row r="17" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="73">
-        <f ca="1">E16+2</f>
-        <v>45100</v>
-      </c>
-      <c r="F17" s="73">
-        <f ca="1">E17+5</f>
-        <v>45105</v>
-      </c>
+      <c r="A17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
       <c r="G17" s="38"/>
-      <c r="H17" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+      <c r="H17" s="38" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -3502,8 +3500,8 @@
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
@@ -3548,24 +3546,26 @@
       <c r="BL17" s="5"/>
     </row>
     <row r="18" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="8"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" s="17"/>
-      <c r="D18" s="42"/>
+      <c r="D18" s="42">
+        <v>0.5</v>
+      </c>
       <c r="E18" s="73">
-        <f ca="1">F17</f>
-        <v>45105</v>
+        <f ca="1">E16+1</f>
+        <v>45099</v>
       </c>
       <c r="F18" s="73">
-        <f ca="1">E18+3</f>
-        <v>45108</v>
+        <f ca="1">E18+4</f>
+        <v>45103</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="38">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -3627,22 +3627,24 @@
     <row r="19" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="B19" s="23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="17"/>
-      <c r="D19" s="42"/>
+      <c r="D19" s="42">
+        <v>0.5</v>
+      </c>
       <c r="E19" s="73">
-        <f ca="1">E18</f>
-        <v>45105</v>
+        <f ca="1">E18+2</f>
+        <v>45101</v>
       </c>
       <c r="F19" s="73">
-        <f ca="1">E19+2</f>
-        <v>45107</v>
+        <f ca="1">E19+5</f>
+        <v>45106</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="38">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -3656,11 +3658,11 @@
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="6"/>
+      <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
@@ -3704,17 +3706,17 @@
     <row r="20" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="B20" s="23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="42"/>
       <c r="E20" s="73">
-        <f ca="1">E19</f>
-        <v>45105</v>
+        <f ca="1">F19</f>
+        <v>45106</v>
       </c>
       <c r="F20" s="73">
         <f ca="1">E20+3</f>
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="38">
@@ -3779,20 +3781,24 @@
       <c r="BL20" s="5"/>
     </row>
     <row r="21" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="75"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="73">
+        <f ca="1">E20</f>
+        <v>45106</v>
+      </c>
+      <c r="F21" s="73">
+        <f ca="1">E21+2</f>
+        <v>45108</v>
+      </c>
       <c r="G21" s="38"/>
-      <c r="H21" s="38" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="H21" s="38">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -3810,7 +3816,7 @@
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
+      <c r="Y21" s="6"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
@@ -3853,23 +3859,23 @@
     </row>
     <row r="22" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
-      <c r="B22" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="76">
-        <f ca="1">E9+15</f>
-        <v>45111</v>
-      </c>
-      <c r="F22" s="76">
-        <f ca="1">E22+5</f>
-        <v>45116</v>
+      <c r="B22" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="73">
+        <f ca="1">E21</f>
+        <v>45106</v>
+      </c>
+      <c r="F22" s="73">
+        <f ca="1">E22+3</f>
+        <v>45109</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -3929,24 +3935,20 @@
       <c r="BL22" s="5"/>
     </row>
     <row r="23" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="76">
-        <f ca="1">F22+1</f>
-        <v>45117</v>
-      </c>
-      <c r="F23" s="76">
-        <f ca="1">E23+4</f>
-        <v>45121</v>
-      </c>
+      <c r="A23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="75"/>
       <c r="G23" s="38"/>
-      <c r="H23" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+      <c r="H23" s="38" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -4008,17 +4010,17 @@
     <row r="24" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="B24" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="45"/>
       <c r="E24" s="76">
-        <f ca="1">E23+5</f>
-        <v>45122</v>
+        <f ca="1">E9+15</f>
+        <v>45112</v>
       </c>
       <c r="F24" s="76">
         <f ca="1">E24+5</f>
-        <v>45127</v>
+        <v>45117</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="38">
@@ -4085,17 +4087,17 @@
     <row r="25" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="B25" s="24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="45"/>
       <c r="E25" s="76">
         <f ca="1">F24+1</f>
-        <v>45128</v>
+        <v>45118</v>
       </c>
       <c r="F25" s="76">
         <f ca="1">E25+4</f>
-        <v>45132</v>
+        <v>45122</v>
       </c>
       <c r="G25" s="38"/>
       <c r="H25" s="38">
@@ -4162,22 +4164,22 @@
     <row r="26" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="B26" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="45"/>
       <c r="E26" s="76">
-        <f ca="1">E24</f>
-        <v>45122</v>
+        <f ca="1">E25+5</f>
+        <v>45123</v>
       </c>
       <c r="F26" s="76">
-        <f ca="1">E26+4</f>
-        <v>45126</v>
+        <f ca="1">E26+5</f>
+        <v>45128</v>
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="38">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -4237,20 +4239,24 @@
       <c r="BL26" s="5"/>
     </row>
     <row r="27" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="78"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="76">
+        <f ca="1">F26+1</f>
+        <v>45129</v>
+      </c>
+      <c r="F27" s="76">
+        <f ca="1">E27+4</f>
+        <v>45133</v>
+      </c>
       <c r="G27" s="38"/>
-      <c r="H27" s="38" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="H27" s="38">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -4311,21 +4317,23 @@
     </row>
     <row r="28" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
-      <c r="B28" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="79" t="s">
-        <v>26</v>
+      <c r="B28" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="76">
+        <f ca="1">E26</f>
+        <v>45123</v>
+      </c>
+      <c r="F28" s="76">
+        <f ca="1">E28+4</f>
+        <v>45127</v>
       </c>
       <c r="G28" s="38"/>
-      <c r="H28" s="38" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+      <c r="H28" s="38">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -4385,22 +4393,20 @@
       <c r="BL28" s="5"/>
     </row>
     <row r="29" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="8"/>
-      <c r="B29" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="79" t="s">
-        <v>26</v>
-      </c>
+      <c r="A29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="78"/>
       <c r="G29" s="38"/>
-      <c r="H29" s="38" t="e">
+      <c r="H29" s="38" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -4462,7 +4468,7 @@
     <row r="30" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="B30" s="25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="48"/>
@@ -4537,7 +4543,7 @@
     <row r="31" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="B31" s="25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="48"/>
@@ -4612,7 +4618,7 @@
     <row r="32" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="B32" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="48"/>
@@ -4686,13 +4692,22 @@
     </row>
     <row r="33" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
-      <c r="B33" s="25"/>
+      <c r="B33" s="25" t="s">
+        <v>19</v>
+      </c>
       <c r="C33" s="21"/>
       <c r="D33" s="48"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
+      <c r="E33" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="79" t="s">
+        <v>26</v>
+      </c>
       <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
+      <c r="H33" s="38" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
@@ -4751,20 +4766,22 @@
       <c r="BL33" s="5"/>
     </row>
     <row r="34" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="85"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="79" t="s">
+        <v>26</v>
+      </c>
       <c r="G34" s="38"/>
-      <c r="H34" s="38" t="str">
+      <c r="H34" s="38" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -4825,17 +4842,11 @@
     </row>
     <row r="35" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
-      <c r="B35" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="90">
-        <v>0</v>
-      </c>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
       <c r="I35" s="5"/>
@@ -4896,20 +4907,21 @@
       <c r="BL35" s="5"/>
     </row>
     <row r="36" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="8"/>
-      <c r="B36" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="92" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="90">
-        <v>0</v>
-      </c>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
+      <c r="A36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="85"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
       <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
+      <c r="H36" s="38" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -4970,20 +4982,16 @@
     <row r="37" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="B37" s="89" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C37" s="92" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D37" s="90">
-        <v>0.5</v>
-      </c>
-      <c r="E37" s="91">
-        <v>45092</v>
-      </c>
-      <c r="F37" s="91">
-        <v>45093</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
       <c r="I37" s="5"/>
@@ -5046,20 +5054,16 @@
     <row r="38" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
       <c r="B38" s="89" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C38" s="92" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D38" s="90">
-        <v>0.9</v>
-      </c>
-      <c r="E38" s="91">
-        <v>45093</v>
-      </c>
-      <c r="F38" s="91">
-        <v>45093</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
       <c r="I38" s="5"/>
@@ -5122,16 +5126,20 @@
     <row r="39" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="8"/>
       <c r="B39" s="89" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C39" s="92" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D39" s="90">
-        <v>0</v>
-      </c>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="91">
+        <v>45092</v>
+      </c>
+      <c r="F39" s="91">
+        <v>45093</v>
+      </c>
       <c r="G39" s="38"/>
       <c r="H39" s="38"/>
       <c r="I39" s="5"/>
@@ -5194,16 +5202,20 @@
     <row r="40" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="8"/>
       <c r="B40" s="89" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C40" s="92" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D40" s="90">
-        <v>0</v>
-      </c>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
+        <v>0.9</v>
+      </c>
+      <c r="E40" s="91">
+        <v>45093</v>
+      </c>
+      <c r="F40" s="91">
+        <v>45093</v>
+      </c>
       <c r="G40" s="38"/>
       <c r="H40" s="38"/>
       <c r="I40" s="5"/>
@@ -5266,10 +5278,10 @@
     <row r="41" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8"/>
       <c r="B41" s="89" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="92" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D41" s="90">
         <v>0</v>
@@ -5338,10 +5350,10 @@
     <row r="42" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="8"/>
       <c r="B42" s="89" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="92" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D42" s="90">
         <v>0</v>
@@ -5410,10 +5422,10 @@
     <row r="43" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="8"/>
       <c r="B43" s="89" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="92" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D43" s="90">
         <v>0</v>
@@ -5480,104 +5492,248 @@
       <c r="BL43" s="5"/>
     </row>
     <row r="44" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8"/>
+      <c r="B44" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="90">
+        <v>0</v>
+      </c>
+      <c r="E44" s="91"/>
+      <c r="F44" s="91"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5"/>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="5"/>
+      <c r="AO44" s="5"/>
+      <c r="AP44" s="5"/>
+      <c r="AQ44" s="5"/>
+      <c r="AR44" s="5"/>
+      <c r="AS44" s="5"/>
+      <c r="AT44" s="5"/>
+      <c r="AU44" s="5"/>
+      <c r="AV44" s="5"/>
+      <c r="AW44" s="5"/>
+      <c r="AX44" s="5"/>
+      <c r="AY44" s="5"/>
+      <c r="AZ44" s="5"/>
+      <c r="BA44" s="5"/>
+      <c r="BB44" s="5"/>
+      <c r="BC44" s="5"/>
+      <c r="BD44" s="5"/>
+      <c r="BE44" s="5"/>
+      <c r="BF44" s="5"/>
+      <c r="BG44" s="5"/>
+      <c r="BH44" s="5"/>
+      <c r="BI44" s="5"/>
+      <c r="BJ44" s="5"/>
+      <c r="BK44" s="5"/>
+      <c r="BL44" s="5"/>
+    </row>
+    <row r="45" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="8"/>
+      <c r="B45" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="90">
+        <v>0</v>
+      </c>
+      <c r="E45" s="91"/>
+      <c r="F45" s="91"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="5"/>
+      <c r="AJ45" s="5"/>
+      <c r="AK45" s="5"/>
+      <c r="AL45" s="5"/>
+      <c r="AM45" s="5"/>
+      <c r="AN45" s="5"/>
+      <c r="AO45" s="5"/>
+      <c r="AP45" s="5"/>
+      <c r="AQ45" s="5"/>
+      <c r="AR45" s="5"/>
+      <c r="AS45" s="5"/>
+      <c r="AT45" s="5"/>
+      <c r="AU45" s="5"/>
+      <c r="AV45" s="5"/>
+      <c r="AW45" s="5"/>
+      <c r="AX45" s="5"/>
+      <c r="AY45" s="5"/>
+      <c r="AZ45" s="5"/>
+      <c r="BA45" s="5"/>
+      <c r="BB45" s="5"/>
+      <c r="BC45" s="5"/>
+      <c r="BD45" s="5"/>
+      <c r="BE45" s="5"/>
+      <c r="BF45" s="5"/>
+      <c r="BG45" s="5"/>
+      <c r="BH45" s="5"/>
+      <c r="BI45" s="5"/>
+      <c r="BJ45" s="5"/>
+      <c r="BK45" s="5"/>
+      <c r="BL45" s="5"/>
+    </row>
+    <row r="46" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="49" t="s">
+      <c r="B46" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="50"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52" t="str">
+      <c r="C46" s="50"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="7"/>
-      <c r="AA44" s="7"/>
-      <c r="AB44" s="7"/>
-      <c r="AC44" s="7"/>
-      <c r="AD44" s="7"/>
-      <c r="AE44" s="7"/>
-      <c r="AF44" s="7"/>
-      <c r="AG44" s="7"/>
-      <c r="AH44" s="7"/>
-      <c r="AI44" s="7"/>
-      <c r="AJ44" s="7"/>
-      <c r="AK44" s="7"/>
-      <c r="AL44" s="7"/>
-      <c r="AM44" s="7"/>
-      <c r="AN44" s="7"/>
-      <c r="AO44" s="7"/>
-      <c r="AP44" s="7"/>
-      <c r="AQ44" s="7"/>
-      <c r="AR44" s="7"/>
-      <c r="AS44" s="7"/>
-      <c r="AT44" s="7"/>
-      <c r="AU44" s="7"/>
-      <c r="AV44" s="7"/>
-      <c r="AW44" s="7"/>
-      <c r="AX44" s="7"/>
-      <c r="AY44" s="7"/>
-      <c r="AZ44" s="7"/>
-      <c r="BA44" s="7"/>
-      <c r="BB44" s="7"/>
-      <c r="BC44" s="7"/>
-      <c r="BD44" s="7"/>
-      <c r="BE44" s="7"/>
-      <c r="BF44" s="7"/>
-      <c r="BG44" s="7"/>
-      <c r="BH44" s="7"/>
-      <c r="BI44" s="7"/>
-      <c r="BJ44" s="7"/>
-      <c r="BK44" s="7"/>
-      <c r="BL44" s="7"/>
-    </row>
-    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="53"/>
-      <c r="F46" s="54"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="7"/>
+      <c r="AG46" s="7"/>
+      <c r="AH46" s="7"/>
+      <c r="AI46" s="7"/>
+      <c r="AJ46" s="7"/>
+      <c r="AK46" s="7"/>
+      <c r="AL46" s="7"/>
+      <c r="AM46" s="7"/>
+      <c r="AN46" s="7"/>
+      <c r="AO46" s="7"/>
+      <c r="AP46" s="7"/>
+      <c r="AQ46" s="7"/>
+      <c r="AR46" s="7"/>
+      <c r="AS46" s="7"/>
+      <c r="AT46" s="7"/>
+      <c r="AU46" s="7"/>
+      <c r="AV46" s="7"/>
+      <c r="AW46" s="7"/>
+      <c r="AX46" s="7"/>
+      <c r="AY46" s="7"/>
+      <c r="AZ46" s="7"/>
+      <c r="BA46" s="7"/>
+      <c r="BB46" s="7"/>
+      <c r="BC46" s="7"/>
+      <c r="BD46" s="7"/>
+      <c r="BE46" s="7"/>
+      <c r="BF46" s="7"/>
+      <c r="BG46" s="7"/>
+      <c r="BH46" s="7"/>
+      <c r="BI46" s="7"/>
+      <c r="BJ46" s="7"/>
+      <c r="BK46" s="7"/>
+      <c r="BL46" s="7"/>
     </row>
     <row r="47" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="55"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="53"/>
+      <c r="F48" s="54"/>
+    </row>
+    <row r="49" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
-  <conditionalFormatting sqref="D7:D44">
+  <conditionalFormatting sqref="D7:D46">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5591,12 +5747,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL44">
+  <conditionalFormatting sqref="I5:BL46">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL44">
+  <conditionalFormatting sqref="I7:BL46">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
@@ -5620,10 +5776,10 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="43" max="16383" man="1"/>
+    <brk id="45" max="16383" man="1"/>
   </rowBreaks>
   <ignoredErrors>
-    <ignoredError sqref="F19 F23:F24 E24" formula="1"/>
+    <ignoredError sqref="F21 F25:F26 E26" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -5641,7 +5797,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D44</xm:sqref>
+          <xm:sqref>D7:D46</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5759,6 +5915,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6046,26 +6222,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6076,6 +6232,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6096,18 +6264,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>

--- a/共有用フォルダー/ガントチャート/小柳ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/小柳ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DD3C9C-C4FF-4C70-A6A2-2C735F00D927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E651B85-64C5-40C0-B507-502CE2AB5DC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1437,23 +1437,23 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2065,8 +2065,8 @@
   <dimension ref="A1:BL49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="72" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2118,107 +2118,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="98">
+      <c r="D3" s="98"/>
+      <c r="E3" s="96">
         <f ca="1">TODAY()</f>
-        <v>45097</v>
-      </c>
-      <c r="F3" s="98"/>
+        <v>45098</v>
+      </c>
+      <c r="F3" s="96"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="94"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="93">
         <f ca="1">I5</f>
         <v>45096</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="95">
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="93">
         <f ca="1">P5</f>
         <v>45103</v>
       </c>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="95">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="93">
         <f ca="1">W5</f>
         <v>45110</v>
       </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="95">
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="93">
         <f ca="1">AD5</f>
         <v>45117</v>
       </c>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="95">
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="93">
         <f ca="1">AK5</f>
         <v>45124</v>
       </c>
-      <c r="AL4" s="96"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="95">
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="93">
         <f ca="1">AR5</f>
         <v>45131</v>
       </c>
-      <c r="AS4" s="96"/>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="96"/>
-      <c r="AW4" s="96"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="95">
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="95"/>
+      <c r="AY4" s="93">
         <f ca="1">AY5</f>
         <v>45138</v>
       </c>
-      <c r="AZ4" s="96"/>
-      <c r="BA4" s="96"/>
-      <c r="BB4" s="96"/>
-      <c r="BC4" s="96"/>
-      <c r="BD4" s="96"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="95">
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="95"/>
+      <c r="BF4" s="93">
         <f ca="1">BF5</f>
         <v>45145</v>
       </c>
-      <c r="BG4" s="96"/>
-      <c r="BH4" s="96"/>
-      <c r="BI4" s="96"/>
-      <c r="BJ4" s="96"/>
-      <c r="BK4" s="96"/>
-      <c r="BL4" s="97"/>
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="94"/>
+      <c r="BK4" s="94"/>
+      <c r="BL4" s="95"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -2858,11 +2858,11 @@
       </c>
       <c r="E9" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="F9" s="70">
         <f ca="1">E9+3</f>
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38">
@@ -2937,15 +2937,15 @@
         <v>71</v>
       </c>
       <c r="D10" s="39">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E10" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="F10" s="70">
         <f ca="1">E10+2</f>
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38">
@@ -3170,11 +3170,11 @@
       </c>
       <c r="E13" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="F13" s="70">
         <f ca="1">E13+4</f>
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="G13" s="38"/>
       <c r="H13" s="38">
@@ -3251,11 +3251,11 @@
       </c>
       <c r="E14" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="F14" s="70">
         <f ca="1">E14+5</f>
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="38">
@@ -3404,11 +3404,11 @@
       </c>
       <c r="E16" s="70">
         <f ca="1">E10+1</f>
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="F16" s="70">
         <f ca="1">E16+2</f>
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38">
@@ -3556,11 +3556,11 @@
       </c>
       <c r="E18" s="73">
         <f ca="1">E16+1</f>
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="F18" s="73">
         <f ca="1">E18+4</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="38">
@@ -3635,11 +3635,11 @@
       </c>
       <c r="E19" s="73">
         <f ca="1">E18+2</f>
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="F19" s="73">
         <f ca="1">E19+5</f>
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="38">
@@ -3712,11 +3712,11 @@
       <c r="D20" s="42"/>
       <c r="E20" s="73">
         <f ca="1">F19</f>
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="F20" s="73">
         <f ca="1">E20+3</f>
-        <v>45109</v>
+        <v>45110</v>
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="38">
@@ -3789,11 +3789,11 @@
       <c r="D21" s="42"/>
       <c r="E21" s="73">
         <f ca="1">E20</f>
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="F21" s="73">
         <f ca="1">E21+2</f>
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="G21" s="38"/>
       <c r="H21" s="38">
@@ -3866,11 +3866,11 @@
       <c r="D22" s="42"/>
       <c r="E22" s="73">
         <f ca="1">E21</f>
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="F22" s="73">
         <f ca="1">E22+3</f>
-        <v>45109</v>
+        <v>45110</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38">
@@ -4016,11 +4016,11 @@
       <c r="D24" s="45"/>
       <c r="E24" s="76">
         <f ca="1">E9+15</f>
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="F24" s="76">
         <f ca="1">E24+5</f>
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="38">
@@ -4093,11 +4093,11 @@
       <c r="D25" s="45"/>
       <c r="E25" s="76">
         <f ca="1">F24+1</f>
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="F25" s="76">
         <f ca="1">E25+4</f>
-        <v>45122</v>
+        <v>45123</v>
       </c>
       <c r="G25" s="38"/>
       <c r="H25" s="38">
@@ -4170,11 +4170,11 @@
       <c r="D26" s="45"/>
       <c r="E26" s="76">
         <f ca="1">E25+5</f>
-        <v>45123</v>
+        <v>45124</v>
       </c>
       <c r="F26" s="76">
         <f ca="1">E26+5</f>
-        <v>45128</v>
+        <v>45129</v>
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="38">
@@ -4247,11 +4247,11 @@
       <c r="D27" s="45"/>
       <c r="E27" s="76">
         <f ca="1">F26+1</f>
-        <v>45129</v>
+        <v>45130</v>
       </c>
       <c r="F27" s="76">
         <f ca="1">E27+4</f>
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="G27" s="38"/>
       <c r="H27" s="38">
@@ -4324,11 +4324,11 @@
       <c r="D28" s="45"/>
       <c r="E28" s="76">
         <f ca="1">E26</f>
-        <v>45123</v>
+        <v>45124</v>
       </c>
       <c r="F28" s="76">
         <f ca="1">E28+4</f>
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="38">
@@ -5720,17 +5720,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D46">
@@ -5915,26 +5915,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6222,6 +6202,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6232,18 +6232,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6264,6 +6252,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>

--- a/共有用フォルダー/ガントチャート/小柳ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/小柳ガントチャート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E651B85-64C5-40C0-B507-502CE2AB5DC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621A90CF-9108-4E85-96A0-4D5D68072900}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -1437,6 +1437,12 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1448,12 +1454,6 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2064,9 +2064,9 @@
   </sheetPr>
   <dimension ref="A1:BL49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="72" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="72" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2118,107 +2118,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="96">
+      <c r="D3" s="94"/>
+      <c r="E3" s="98">
         <f ca="1">TODAY()</f>
-        <v>45098</v>
-      </c>
-      <c r="F3" s="96"/>
+        <v>45104</v>
+      </c>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="93">
+      <c r="I4" s="95">
         <f ca="1">I5</f>
-        <v>45096</v>
-      </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93">
+        <v>45103</v>
+      </c>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="95">
         <f ca="1">P5</f>
-        <v>45103</v>
-      </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="93">
+        <v>45110</v>
+      </c>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="95">
         <f ca="1">W5</f>
-        <v>45110</v>
-      </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="93">
+        <v>45117</v>
+      </c>
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="95">
         <f ca="1">AD5</f>
-        <v>45117</v>
-      </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="93">
+        <v>45124</v>
+      </c>
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="95">
         <f ca="1">AK5</f>
-        <v>45124</v>
-      </c>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="93">
+        <v>45131</v>
+      </c>
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="95">
         <f ca="1">AR5</f>
-        <v>45131</v>
-      </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="93">
+        <v>45138</v>
+      </c>
+      <c r="AS4" s="96"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="95">
         <f ca="1">AY5</f>
-        <v>45138</v>
-      </c>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="93">
+        <v>45145</v>
+      </c>
+      <c r="AZ4" s="96"/>
+      <c r="BA4" s="96"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="95">
         <f ca="1">BF5</f>
-        <v>45145</v>
-      </c>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="95"/>
+        <v>45152</v>
+      </c>
+      <c r="BG4" s="96"/>
+      <c r="BH4" s="96"/>
+      <c r="BI4" s="96"/>
+      <c r="BJ4" s="96"/>
+      <c r="BK4" s="96"/>
+      <c r="BL4" s="97"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -2232,227 +2232,227 @@
       <c r="G5" s="26"/>
       <c r="I5" s="82">
         <f ca="1">プロジェクトの開始-WEEKDAY(プロジェクトの開始,1)+2+7*(週表示-1)</f>
-        <v>45096</v>
+        <v>45103</v>
       </c>
       <c r="J5" s="83">
         <f ca="1">I5+1</f>
-        <v>45097</v>
+        <v>45104</v>
       </c>
       <c r="K5" s="83">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45098</v>
+        <v>45105</v>
       </c>
       <c r="L5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45099</v>
+        <v>45106</v>
       </c>
       <c r="M5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="N5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45101</v>
+        <v>45108</v>
       </c>
       <c r="O5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45102</v>
+        <v>45109</v>
       </c>
       <c r="P5" s="82">
         <f ca="1">O5+1</f>
-        <v>45103</v>
+        <v>45110</v>
       </c>
       <c r="Q5" s="83">
         <f ca="1">P5+1</f>
-        <v>45104</v>
+        <v>45111</v>
       </c>
       <c r="R5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45105</v>
+        <v>45112</v>
       </c>
       <c r="S5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45106</v>
+        <v>45113</v>
       </c>
       <c r="T5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45107</v>
+        <v>45114</v>
       </c>
       <c r="U5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45108</v>
+        <v>45115</v>
       </c>
       <c r="V5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45109</v>
+        <v>45116</v>
       </c>
       <c r="W5" s="82">
         <f ca="1">V5+1</f>
-        <v>45110</v>
+        <v>45117</v>
       </c>
       <c r="X5" s="83">
         <f ca="1">W5+1</f>
-        <v>45111</v>
+        <v>45118</v>
       </c>
       <c r="Y5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45112</v>
+        <v>45119</v>
       </c>
       <c r="Z5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45113</v>
+        <v>45120</v>
       </c>
       <c r="AA5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45114</v>
+        <v>45121</v>
       </c>
       <c r="AB5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45115</v>
+        <v>45122</v>
       </c>
       <c r="AC5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45116</v>
+        <v>45123</v>
       </c>
       <c r="AD5" s="82">
         <f ca="1">AC5+1</f>
-        <v>45117</v>
+        <v>45124</v>
       </c>
       <c r="AE5" s="83">
         <f ca="1">AD5+1</f>
-        <v>45118</v>
+        <v>45125</v>
       </c>
       <c r="AF5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45119</v>
+        <v>45126</v>
       </c>
       <c r="AG5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45120</v>
+        <v>45127</v>
       </c>
       <c r="AH5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45121</v>
+        <v>45128</v>
       </c>
       <c r="AI5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45122</v>
+        <v>45129</v>
       </c>
       <c r="AJ5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45123</v>
+        <v>45130</v>
       </c>
       <c r="AK5" s="82">
         <f ca="1">AJ5+1</f>
-        <v>45124</v>
+        <v>45131</v>
       </c>
       <c r="AL5" s="83">
         <f ca="1">AK5+1</f>
-        <v>45125</v>
+        <v>45132</v>
       </c>
       <c r="AM5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45126</v>
+        <v>45133</v>
       </c>
       <c r="AN5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45127</v>
+        <v>45134</v>
       </c>
       <c r="AO5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45128</v>
+        <v>45135</v>
       </c>
       <c r="AP5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45129</v>
+        <v>45136</v>
       </c>
       <c r="AQ5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45130</v>
+        <v>45137</v>
       </c>
       <c r="AR5" s="82">
         <f ca="1">AQ5+1</f>
-        <v>45131</v>
+        <v>45138</v>
       </c>
       <c r="AS5" s="83">
         <f ca="1">AR5+1</f>
-        <v>45132</v>
+        <v>45139</v>
       </c>
       <c r="AT5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45133</v>
+        <v>45140</v>
       </c>
       <c r="AU5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45134</v>
+        <v>45141</v>
       </c>
       <c r="AV5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45135</v>
+        <v>45142</v>
       </c>
       <c r="AW5" s="83">
         <f t="shared" ca="1" si="0"/>
-        <v>45136</v>
+        <v>45143</v>
       </c>
       <c r="AX5" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>45137</v>
+        <v>45144</v>
       </c>
       <c r="AY5" s="82">
         <f ca="1">AX5+1</f>
-        <v>45138</v>
+        <v>45145</v>
       </c>
       <c r="AZ5" s="83">
         <f ca="1">AY5+1</f>
-        <v>45139</v>
+        <v>45146</v>
       </c>
       <c r="BA5" s="83">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45140</v>
+        <v>45147</v>
       </c>
       <c r="BB5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45141</v>
+        <v>45148</v>
       </c>
       <c r="BC5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45142</v>
+        <v>45149</v>
       </c>
       <c r="BD5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45143</v>
+        <v>45150</v>
       </c>
       <c r="BE5" s="84">
         <f t="shared" ca="1" si="1"/>
-        <v>45144</v>
+        <v>45151</v>
       </c>
       <c r="BF5" s="82">
         <f ca="1">BE5+1</f>
-        <v>45145</v>
+        <v>45152</v>
       </c>
       <c r="BG5" s="83">
         <f ca="1">BF5+1</f>
-        <v>45146</v>
+        <v>45153</v>
       </c>
       <c r="BH5" s="83">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45147</v>
+        <v>45154</v>
       </c>
       <c r="BI5" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>45148</v>
+        <v>45155</v>
       </c>
       <c r="BJ5" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>45149</v>
+        <v>45156</v>
       </c>
       <c r="BK5" s="83">
         <f t="shared" ca="1" si="2"/>
-        <v>45150</v>
+        <v>45157</v>
       </c>
       <c r="BL5" s="84">
         <f t="shared" ca="1" si="2"/>
-        <v>45151</v>
+        <v>45158</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2854,15 +2854,15 @@
         <v>68</v>
       </c>
       <c r="D9" s="39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E9" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45098</v>
+        <v>45104</v>
       </c>
       <c r="F9" s="70">
         <f ca="1">E9+3</f>
-        <v>45101</v>
+        <v>45107</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38">
@@ -2941,16 +2941,16 @@
       </c>
       <c r="E10" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45098</v>
+        <v>45104</v>
       </c>
       <c r="F10" s="70">
-        <f ca="1">E10+2</f>
-        <v>45100</v>
+        <f ca="1">E10+3</f>
+        <v>45107</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -3023,7 +3023,10 @@
       <c r="E11" s="70">
         <v>45097</v>
       </c>
-      <c r="F11" s="70"/>
+      <c r="F11" s="70">
+        <f>E11+1</f>
+        <v>45098</v>
+      </c>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
       <c r="I11" s="5"/>
@@ -3097,7 +3100,10 @@
       <c r="E12" s="70">
         <v>45097</v>
       </c>
-      <c r="F12" s="70"/>
+      <c r="F12" s="70">
+        <f>E12+1</f>
+        <v>45098</v>
+      </c>
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
       <c r="I12" s="5"/>
@@ -3170,16 +3176,16 @@
       </c>
       <c r="E13" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45098</v>
+        <v>45104</v>
       </c>
       <c r="F13" s="70">
-        <f ca="1">E13+4</f>
-        <v>45102</v>
+        <f ca="1">E13+1</f>
+        <v>45105</v>
       </c>
       <c r="G13" s="38"/>
       <c r="H13" s="38">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -3247,20 +3253,20 @@
         <v>73</v>
       </c>
       <c r="D14" s="39">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E14" s="70">
         <f ca="1">プロジェクトの開始</f>
-        <v>45098</v>
+        <v>45104</v>
       </c>
       <c r="F14" s="70">
-        <f ca="1">E14+5</f>
-        <v>45103</v>
+        <f ca="1">E14+3</f>
+        <v>45107</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="38">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -3328,7 +3334,7 @@
         <v>75</v>
       </c>
       <c r="D15" s="39">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E15" s="70"/>
       <c r="F15" s="70"/>
@@ -3400,15 +3406,15 @@
         <v>76</v>
       </c>
       <c r="D16" s="39">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E16" s="70">
         <f ca="1">E10+1</f>
-        <v>45099</v>
+        <v>45105</v>
       </c>
       <c r="F16" s="70">
         <f ca="1">E16+2</f>
-        <v>45101</v>
+        <v>45107</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38">
@@ -3556,11 +3562,11 @@
       </c>
       <c r="E18" s="73">
         <f ca="1">E16+1</f>
-        <v>45100</v>
+        <v>45106</v>
       </c>
       <c r="F18" s="73">
         <f ca="1">E18+4</f>
-        <v>45104</v>
+        <v>45110</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="38">
@@ -3635,11 +3641,11 @@
       </c>
       <c r="E19" s="73">
         <f ca="1">E18+2</f>
-        <v>45102</v>
+        <v>45108</v>
       </c>
       <c r="F19" s="73">
         <f ca="1">E19+5</f>
-        <v>45107</v>
+        <v>45113</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="38">
@@ -3712,11 +3718,11 @@
       <c r="D20" s="42"/>
       <c r="E20" s="73">
         <f ca="1">F19</f>
-        <v>45107</v>
+        <v>45113</v>
       </c>
       <c r="F20" s="73">
         <f ca="1">E20+3</f>
-        <v>45110</v>
+        <v>45116</v>
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="38">
@@ -3789,11 +3795,11 @@
       <c r="D21" s="42"/>
       <c r="E21" s="73">
         <f ca="1">E20</f>
-        <v>45107</v>
+        <v>45113</v>
       </c>
       <c r="F21" s="73">
         <f ca="1">E21+2</f>
-        <v>45109</v>
+        <v>45115</v>
       </c>
       <c r="G21" s="38"/>
       <c r="H21" s="38">
@@ -3866,11 +3872,11 @@
       <c r="D22" s="42"/>
       <c r="E22" s="73">
         <f ca="1">E21</f>
-        <v>45107</v>
+        <v>45113</v>
       </c>
       <c r="F22" s="73">
         <f ca="1">E22+3</f>
-        <v>45110</v>
+        <v>45116</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38">
@@ -4016,11 +4022,11 @@
       <c r="D24" s="45"/>
       <c r="E24" s="76">
         <f ca="1">E9+15</f>
-        <v>45113</v>
+        <v>45119</v>
       </c>
       <c r="F24" s="76">
         <f ca="1">E24+5</f>
-        <v>45118</v>
+        <v>45124</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="38">
@@ -4093,11 +4099,11 @@
       <c r="D25" s="45"/>
       <c r="E25" s="76">
         <f ca="1">F24+1</f>
-        <v>45119</v>
+        <v>45125</v>
       </c>
       <c r="F25" s="76">
         <f ca="1">E25+4</f>
-        <v>45123</v>
+        <v>45129</v>
       </c>
       <c r="G25" s="38"/>
       <c r="H25" s="38">
@@ -4170,11 +4176,11 @@
       <c r="D26" s="45"/>
       <c r="E26" s="76">
         <f ca="1">E25+5</f>
-        <v>45124</v>
+        <v>45130</v>
       </c>
       <c r="F26" s="76">
         <f ca="1">E26+5</f>
-        <v>45129</v>
+        <v>45135</v>
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="38">
@@ -4247,11 +4253,11 @@
       <c r="D27" s="45"/>
       <c r="E27" s="76">
         <f ca="1">F26+1</f>
-        <v>45130</v>
+        <v>45136</v>
       </c>
       <c r="F27" s="76">
         <f ca="1">E27+4</f>
-        <v>45134</v>
+        <v>45140</v>
       </c>
       <c r="G27" s="38"/>
       <c r="H27" s="38">
@@ -4324,11 +4330,11 @@
       <c r="D28" s="45"/>
       <c r="E28" s="76">
         <f ca="1">E26</f>
-        <v>45124</v>
+        <v>45130</v>
       </c>
       <c r="F28" s="76">
         <f ca="1">E28+4</f>
-        <v>45128</v>
+        <v>45134</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="38">
@@ -5720,17 +5726,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D46">
@@ -5915,6 +5921,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6202,36 +6237,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6250,24 +6276,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/共有用フォルダー/ガントチャート/小柳ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/小柳ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621A90CF-9108-4E85-96A0-4D5D68072900}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E85CDF-F8F5-4FCC-8DF3-3C93A9CE6E35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1437,23 +1437,23 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2065,8 +2065,8 @@
   <dimension ref="A1:BL49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="72" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2118,107 +2118,107 @@
       <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="98">
+      <c r="D3" s="98"/>
+      <c r="E3" s="96">
         <f ca="1">TODAY()</f>
-        <v>45104</v>
-      </c>
-      <c r="F3" s="98"/>
+        <v>45106</v>
+      </c>
+      <c r="F3" s="96"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="94"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="93">
         <f ca="1">I5</f>
         <v>45103</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="95">
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="93">
         <f ca="1">P5</f>
         <v>45110</v>
       </c>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="95">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="93">
         <f ca="1">W5</f>
         <v>45117</v>
       </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="95">
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="93">
         <f ca="1">AD5</f>
         <v>45124</v>
       </c>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="95">
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="93">
         <f ca="1">AK5</f>
         <v>45131</v>
       </c>
-      <c r="AL4" s="96"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="95">
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="93">
         <f ca="1">AR5</f>
         <v>45138</v>
       </c>
-      <c r="AS4" s="96"/>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="96"/>
-      <c r="AW4" s="96"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="95">
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="95"/>
+      <c r="AY4" s="93">
         <f ca="1">AY5</f>
         <v>45145</v>
       </c>
-      <c r="AZ4" s="96"/>
-      <c r="BA4" s="96"/>
-      <c r="BB4" s="96"/>
-      <c r="BC4" s="96"/>
-      <c r="BD4" s="96"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="95">
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="95"/>
+      <c r="BF4" s="93">
         <f ca="1">BF5</f>
         <v>45152</v>
       </c>
-      <c r="BG4" s="96"/>
-      <c r="BH4" s="96"/>
-      <c r="BI4" s="96"/>
-      <c r="BJ4" s="96"/>
-      <c r="BK4" s="96"/>
-      <c r="BL4" s="97"/>
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="94"/>
+      <c r="BK4" s="94"/>
+      <c r="BL4" s="95"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -2857,17 +2857,16 @@
         <v>1</v>
       </c>
       <c r="E9" s="70">
-        <f ca="1">プロジェクトの開始</f>
-        <v>45104</v>
+        <v>45095</v>
       </c>
       <c r="F9" s="70">
-        <f ca="1">E9+3</f>
-        <v>45107</v>
+        <f>E9+7</f>
+        <v>45102</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -2940,16 +2939,15 @@
         <v>1</v>
       </c>
       <c r="E10" s="70">
-        <f ca="1">プロジェクトの開始</f>
-        <v>45104</v>
+        <v>45087</v>
       </c>
       <c r="F10" s="70">
-        <f ca="1">E10+3</f>
-        <v>45107</v>
+        <f>E10+3</f>
+        <v>45090</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="I10" s="5"/>
@@ -3021,11 +3019,11 @@
         <v>1</v>
       </c>
       <c r="E11" s="70">
-        <v>45097</v>
+        <v>45087</v>
       </c>
       <c r="F11" s="70">
-        <f>E11+1</f>
-        <v>45098</v>
+        <f t="shared" ref="F11:F13" si="6">E11+0</f>
+        <v>45087</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
@@ -3098,11 +3096,11 @@
         <v>1</v>
       </c>
       <c r="E12" s="70">
-        <v>45097</v>
+        <v>45087</v>
       </c>
       <c r="F12" s="70">
-        <f>E12+1</f>
-        <v>45098</v>
+        <f t="shared" si="6"/>
+        <v>45087</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
@@ -3175,17 +3173,16 @@
         <v>1</v>
       </c>
       <c r="E13" s="70">
-        <f ca="1">プロジェクトの開始</f>
-        <v>45104</v>
+        <v>45087</v>
       </c>
       <c r="F13" s="70">
-        <f ca="1">E13+1</f>
-        <v>45105</v>
+        <f t="shared" si="6"/>
+        <v>45087</v>
       </c>
       <c r="G13" s="38"/>
       <c r="H13" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -3256,17 +3253,16 @@
         <v>1</v>
       </c>
       <c r="E14" s="70">
-        <f ca="1">プロジェクトの開始</f>
+        <v>45097</v>
+      </c>
+      <c r="F14" s="70">
+        <f>E14+7</f>
         <v>45104</v>
-      </c>
-      <c r="F14" s="70">
-        <f ca="1">E14+3</f>
-        <v>45107</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -3334,10 +3330,15 @@
         <v>75</v>
       </c>
       <c r="D15" s="39">
-        <v>0.7</v>
-      </c>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="70">
+        <v>45097</v>
+      </c>
+      <c r="F15" s="70">
+        <f>E15+7</f>
+        <v>45104</v>
+      </c>
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
       <c r="I15" s="5"/>
@@ -3409,17 +3410,16 @@
         <v>1</v>
       </c>
       <c r="E16" s="70">
-        <f ca="1">E10+1</f>
-        <v>45105</v>
+        <v>45097</v>
       </c>
       <c r="F16" s="70">
-        <f ca="1">E16+2</f>
-        <v>45107</v>
+        <f>E16+7</f>
+        <v>45104</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -3561,16 +3561,16 @@
         <v>0.5</v>
       </c>
       <c r="E18" s="73">
-        <f ca="1">E16+1</f>
-        <v>45106</v>
+        <f>E16+1</f>
+        <v>45098</v>
       </c>
       <c r="F18" s="73">
-        <f ca="1">E18+4</f>
-        <v>45110</v>
+        <f>E18+4</f>
+        <v>45102</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="38">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I18" s="5"/>
@@ -3640,16 +3640,16 @@
         <v>0.5</v>
       </c>
       <c r="E19" s="73">
-        <f ca="1">E18+2</f>
-        <v>45108</v>
+        <f>E18+2</f>
+        <v>45100</v>
       </c>
       <c r="F19" s="73">
-        <f ca="1">E19+5</f>
-        <v>45113</v>
+        <f>E19+5</f>
+        <v>45105</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="38">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I19" s="5"/>
@@ -3717,16 +3717,16 @@
       <c r="C20" s="17"/>
       <c r="D20" s="42"/>
       <c r="E20" s="73">
-        <f ca="1">F19</f>
-        <v>45113</v>
+        <f>F19</f>
+        <v>45105</v>
       </c>
       <c r="F20" s="73">
-        <f ca="1">E20+3</f>
-        <v>45116</v>
+        <f>E20+3</f>
+        <v>45108</v>
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="38">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="I20" s="5"/>
@@ -3794,16 +3794,16 @@
       <c r="C21" s="17"/>
       <c r="D21" s="42"/>
       <c r="E21" s="73">
-        <f ca="1">E20</f>
-        <v>45113</v>
+        <f>E20</f>
+        <v>45105</v>
       </c>
       <c r="F21" s="73">
-        <f ca="1">E21+2</f>
-        <v>45115</v>
+        <f>E21+2</f>
+        <v>45107</v>
       </c>
       <c r="G21" s="38"/>
       <c r="H21" s="38">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="I21" s="5"/>
@@ -3871,16 +3871,16 @@
       <c r="C22" s="17"/>
       <c r="D22" s="42"/>
       <c r="E22" s="73">
-        <f ca="1">E21</f>
-        <v>45113</v>
+        <f>E21</f>
+        <v>45105</v>
       </c>
       <c r="F22" s="73">
-        <f ca="1">E22+3</f>
-        <v>45116</v>
+        <f>E22+3</f>
+        <v>45108</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="I22" s="5"/>
@@ -4021,16 +4021,16 @@
       <c r="C24" s="19"/>
       <c r="D24" s="45"/>
       <c r="E24" s="76">
-        <f ca="1">E9+15</f>
-        <v>45119</v>
+        <f>E9+15</f>
+        <v>45110</v>
       </c>
       <c r="F24" s="76">
-        <f ca="1">E24+5</f>
-        <v>45124</v>
+        <f>E24+5</f>
+        <v>45115</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="38">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I24" s="5"/>
@@ -4098,16 +4098,16 @@
       <c r="C25" s="19"/>
       <c r="D25" s="45"/>
       <c r="E25" s="76">
-        <f ca="1">F24+1</f>
-        <v>45125</v>
+        <f>F24+1</f>
+        <v>45116</v>
       </c>
       <c r="F25" s="76">
-        <f ca="1">E25+4</f>
-        <v>45129</v>
+        <f>E25+4</f>
+        <v>45120</v>
       </c>
       <c r="G25" s="38"/>
       <c r="H25" s="38">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I25" s="5"/>
@@ -4175,16 +4175,16 @@
       <c r="C26" s="19"/>
       <c r="D26" s="45"/>
       <c r="E26" s="76">
-        <f ca="1">E25+5</f>
-        <v>45130</v>
+        <f>E25+5</f>
+        <v>45121</v>
       </c>
       <c r="F26" s="76">
-        <f ca="1">E26+5</f>
-        <v>45135</v>
+        <f>E26+5</f>
+        <v>45126</v>
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="38">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I26" s="5"/>
@@ -4252,16 +4252,16 @@
       <c r="C27" s="19"/>
       <c r="D27" s="45"/>
       <c r="E27" s="76">
-        <f ca="1">F26+1</f>
-        <v>45136</v>
+        <f>F26+1</f>
+        <v>45127</v>
       </c>
       <c r="F27" s="76">
-        <f ca="1">E27+4</f>
-        <v>45140</v>
+        <f>E27+4</f>
+        <v>45131</v>
       </c>
       <c r="G27" s="38"/>
       <c r="H27" s="38">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I27" s="5"/>
@@ -4329,16 +4329,16 @@
       <c r="C28" s="19"/>
       <c r="D28" s="45"/>
       <c r="E28" s="76">
-        <f ca="1">E26</f>
-        <v>45130</v>
+        <f>E26</f>
+        <v>45121</v>
       </c>
       <c r="F28" s="76">
-        <f ca="1">E28+4</f>
-        <v>45134</v>
+        <f>E28+4</f>
+        <v>45125</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="38">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I28" s="5"/>
@@ -5726,17 +5726,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D46">
@@ -5921,35 +5921,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6237,27 +6208,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6276,4 +6256,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>